--- a/jiosaavn.xlsx
+++ b/jiosaavn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F320"/>
+  <dimension ref="A1:G320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>Labels</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Plays  March 15, 2024</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -494,6 +499,11 @@
           <t>© 2020 Red Ribbon Ent. Pvt. Ltd.</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>779388</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -524,6 +534,11 @@
           <t>©  2015 Rajshri</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>295444</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -551,7 +566,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>©  1999 Venus</t>
+          <t>©  1999 Ishtar Music Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>82080</t>
         </is>
       </c>
     </row>
@@ -584,6 +604,11 @@
           <t>©  2016 Red Ribbon Ent. Pvt. Ltd.</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>75590</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -611,7 +636,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2006 Sona Rupa Ltd</t>
+          <t>2005 Times Music</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15152</t>
         </is>
       </c>
     </row>
@@ -644,6 +674,11 @@
           <t>℗ 1983 Universal Music India Pvt. Ltd.</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>356459</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -674,6 +709,11 @@
           <t>© 2019 RDC / Sohil Bloch</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>85090</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -701,7 +741,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">©  1993 </t>
+          <t>℗ 1997 Super Cassettes Industries Private Limited</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>34335</t>
         </is>
       </c>
     </row>
@@ -734,6 +779,11 @@
           <t>©  2010 Gipsy Music</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>37535</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -764,6 +814,11 @@
           <t>Rajshri Media (P) Limited</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>141472</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -791,7 +846,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>©  2002 Venus</t>
+          <t>©  2002 Ishtar Music Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>21871</t>
         </is>
       </c>
     </row>
@@ -824,6 +884,11 @@
           <t>©  2003 Times Music</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>18058</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -854,6 +919,11 @@
           <t>©  2017 Red Ribbon Ent. Pvt. Ltd.</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>11234</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -884,6 +954,11 @@
           <t>℗ 2021 Disney+ Hotstar VIP</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>9170</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -914,6 +989,11 @@
           <t>©  2010 Gipsy Music</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>6347</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -944,6 +1024,11 @@
           <t>Red Ribbon Ent. Pvt. Ltd.</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>6342</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -974,6 +1059,11 @@
           <t>© 2020 Jazz Music and Studio</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>6903</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1004,6 +1094,11 @@
           <t>℗ 1988 Super Cassettes Industries Private Limited</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>4953</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1034,6 +1129,11 @@
           <t>© 2019 Zee Music Company</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>3143</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1061,7 +1161,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2006 Sona Rupa Ltd</t>
+          <t>2005 Times Music</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>48647</t>
         </is>
       </c>
     </row>
@@ -1094,6 +1199,11 @@
           <t>© 2020 Odhali</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1914</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1124,6 +1234,11 @@
           <t>(P) 2017 Myuzic Entertainment</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1472</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1154,6 +1269,11 @@
           <t>(P) 2020 Silki Agrawal</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1028</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1184,6 +1304,11 @@
           <t>(P) 2017 Myuzic Entertainment</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>926</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1211,7 +1336,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>℗ 2021 Kavya Ajit</t>
+          <t>Invalid URL</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Invalid URL</t>
         </is>
       </c>
     </row>
@@ -1244,6 +1374,11 @@
           <t>℗ 2022 Kriptech Informatics</t>
         </is>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1274,6 +1409,11 @@
           <t>© 2018 N.I.Vents &amp; Production / Nisha Madaran</t>
         </is>
       </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>636</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1304,6 +1444,11 @@
           <t>© 2021 Jeevan Mishra</t>
         </is>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1331,7 +1476,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>© 2020 INRECO</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1511,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Junglee Music</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1546,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>© 2020 Red Ribbon Ent. Pvt. Ltd.</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1581,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>℗ 2007 Super Cassettes Industries Private Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1616,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>℗ 1996 Universal Music India Pvt. Ltd.</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1481,7 +1651,12 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>℗ 2022 Brodha V</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1686,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>© 2021 Koo Koo TV Entertainment Pvt Ltd</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1721,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>℗ 1999 Super Cassettes Industries Private Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1571,7 +1756,12 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>© 2022 Bhumik Shah</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1601,7 +1791,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>℗ 2022 Dheeraj Pokharna Music</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1826,12 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>©  1997 Off The Beat</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1861,12 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>© 2022 Ustad G Records</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1691,7 +1896,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>© 1998 Music Centre</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1931,12 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>© 2022 Bhumik Shah</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1751,7 +1966,12 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>℗ 2022 Dheeraj Pokharna Music</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1781,7 +2001,12 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>© 2022 Ustad G Records</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1811,7 +2036,12 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>© 2020 Yuki Cassettes</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1841,7 +2071,12 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>© 2021 Koo Koo TV Entertainment Pvt Ltd</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1871,7 +2106,12 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>℗ 1999 Super Cassettes Industries Private Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1901,7 +2141,12 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>© 2022 Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1931,7 +2176,12 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>℗ 2023 JJUST MUSIC under exclusive license to Warner Music India</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1961,7 +2211,12 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>℗ 1983 Universal Music India Pvt. Ltd.</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1991,7 +2246,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Red Ribbon Ent. Pvt. Ltd.</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2021,7 +2281,12 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>©  2016 Red Ribbon Ent. Pvt. Ltd.</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2316,12 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>℗ 2010 Saregama India Ltd</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2351,12 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>© 2020 Red Ribbon Ent. Pvt. Ltd.</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2111,7 +2386,12 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>© 2019 Red Ribbon Ent. Pvt. Ltd.</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2421,12 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>©  2005 Saregama</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2171,7 +2456,12 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>©  2017 Red Ribbon Ent. Pvt. Ltd.</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2201,7 +2491,12 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>© 2019 Veena</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2526,12 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>℗ 2011 Saregama India Ltd</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2261,7 +2561,12 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>℗ 1974 Saregama India Ltd</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2596,12 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>℗ 1995 Saregama India Ltd</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2631,12 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t xml:space="preserve">©  1995 </t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2351,7 +2666,12 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>© 2020 Rajkot Gurukul</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2381,7 +2701,12 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>© 2019 Jazz Music &amp; Studio</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2411,7 +2736,12 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>© 2022 Amrita</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2441,7 +2771,12 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>℗ 1998 Saregama India Ltd</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2806,12 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>(P) 2016 Myuzic Entertainment</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2501,7 +2841,12 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>©  2016 RDC / Mrudang Audio</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2531,7 +2876,12 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>℗ 2018 Piali Basu</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2911,12 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>℗ 2020 WINGS ENTERTAINMENT LTD</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2591,7 +2946,12 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>℗ 1997 Studio Siddharth</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2621,7 +2981,12 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>℗ 2011 Saregama India Ltd</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2651,7 +3016,12 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>(P) 2005 Shubhayan Industries Incorporated</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2681,7 +3051,12 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>℗ 2001 Studio Sangeeta</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2711,7 +3086,12 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>℗ 1992 Studio Siddharth</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2741,7 +3121,12 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>© 2021 Ultra</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2771,7 +3156,12 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>℗ 2011 Saregama India Ltd</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2801,7 +3191,12 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>©  2000 Saregama</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2831,7 +3226,12 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>© 2019 Traditional</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2861,7 +3261,12 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Invalid URL</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2891,7 +3296,12 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>© 2020 N A Classical Audio Cassettes Co.</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2921,7 +3331,12 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>© 2020 N A Classical Audio Cassettes Co.</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2951,7 +3366,12 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>© 2020 Times Music</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -2981,7 +3401,12 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>℗ 1995 Studio Siddharth</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3011,7 +3436,12 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>℗ 1985 Super Cassettes Industries Private Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3041,7 +3471,12 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>© 2021 Music Nova</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3071,7 +3506,12 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>℗ Sanjivani Music</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3101,7 +3541,12 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>© 2021 Epidemic Sound</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3131,7 +3576,12 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>© 2022 A Three Creations</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3161,7 +3611,12 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>℗ 1994 Studio Siddharth</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3191,7 +3646,12 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>© 2020 Jeel Entertainment &amp; Media</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3221,7 +3681,12 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>(P) 2022 Raga Music Communications Pvt Ltd</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3716,12 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>℗ 1972 Saregama India Ltd</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3281,7 +3751,12 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>℗ 2011 Saregama India Ltd</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3311,7 +3786,12 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>© 2021 Sangeetni Duniya</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3341,7 +3821,12 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>© 2021 Galileo MC</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3371,7 +3856,12 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>© 2022 ForeVision Digital</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3401,7 +3891,12 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>© 2021 Galileo Music Communication</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3431,7 +3926,12 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>℗ 1972 Saregama India Ltd</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3461,7 +3961,12 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>℗ 1972 Saregama India Ltd</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3491,7 +3996,12 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>℗ 1972 Saregama India Ltd</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3521,7 +4031,12 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>℗ 1972 Saregama India Ltd</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3551,7 +4066,12 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>℗ 1972 Saregama India Ltd</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3581,7 +4101,12 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>℗ 1972 Saregama India Ltd</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3611,7 +4136,12 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>℗ 1972 Saregama India Ltd</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3641,7 +4171,12 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>℗ 1972 Saregama India Ltd</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3671,7 +4206,12 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>℗ 1972 Saregama India Ltd</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3701,7 +4241,12 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>© 2021 Red Ribbon Entertainment Pvt. Ltd.</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3731,7 +4276,12 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>© 2021 Red Ribbon Ent. Pvt. Ltd.</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3761,7 +4311,12 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>© 2022 Red Ribbon Entertainment Pvt. Ltd.</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3791,7 +4346,12 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>℗ 2019 Kailasa Records</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3821,7 +4381,12 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>©  2003 Times Music</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3851,7 +4416,12 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>© 2021 Red Ribbon Ent. Pvt. Ltd.</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3881,7 +4451,12 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>© 2021 Red Ribbon Entertainment Pvt. Ltd.</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3911,7 +4486,12 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>℗ 2009 Virgin Records (India) Pvt Ltd</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3941,7 +4521,12 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>℗ 1987 Universal Music India Pvt. Ltd.</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -3971,7 +4556,12 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>©  2008 Times Music</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4001,7 +4591,12 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>©  2014 Strumm Entertainment</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4031,7 +4626,12 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2006 Sona Rupa Ltd</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4061,7 +4661,12 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>© 2019 SVF Entertainment Pvt. Ltd.</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4091,7 +4696,12 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>©  2008 Audiotracs</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4121,7 +4731,12 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>© 2019 Traditional</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4151,7 +4766,12 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4181,7 +4801,12 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>©  2008 Audiotracs</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4211,7 +4836,12 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>©  2008 Audiotracs</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4241,7 +4871,12 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4906,12 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>© 2018 Royant Music</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4301,7 +4941,12 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>©  2015 Strumm Entertainment</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4331,7 +4976,12 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>©  2015 Rajshri</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4361,7 +5011,12 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>℗ 1981 Saregama India Ltd</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4391,7 +5046,12 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>©  2008 Audiotracs</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4421,7 +5081,12 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>℗ 2004 Super Cassettes Industries Private Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4451,7 +5116,12 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4481,7 +5151,12 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>(P) 1990 Audiorec Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4511,7 +5186,12 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>©  1999 Saregama</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4541,7 +5221,12 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>℗ 2021 Panorama Music</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4571,7 +5256,12 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>©  2013 Strumm Entertainment</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4601,7 +5291,12 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>©  2015 Strumm Entertainment</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4631,7 +5326,12 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>© 2022 Red Ribbon Entertainment Pvt. Ltd.</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4661,7 +5361,12 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4691,7 +5396,12 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>© 2014 Muzik 247</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4721,7 +5431,12 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>℗ 1957 Saregama India Ltd</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4751,7 +5466,12 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Invalid URL</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4781,7 +5501,12 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>© 2022 Red Ribbon Entertainment Pvt. Ltd.</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4811,7 +5536,12 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>©  2018 Rajshri Soul</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4841,7 +5571,12 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>© 1999 Sona Rupa Ltd</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4871,7 +5606,12 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>©  2016 Red Ribbon Ent. Pvt. Ltd.</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4901,7 +5641,12 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>℗ 2015 Swathi Soft Solutions &amp; Anil Srinivasan</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4931,7 +5676,12 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>© 2019 Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4961,7 +5711,12 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>©  2018 Rajshri Soul</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -4991,7 +5746,12 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>© 2019 Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5021,7 +5781,12 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>(P) 2015 Indian Music 4U</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5051,7 +5816,12 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2006 Sona Rupa Ltd</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5851,12 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>©  2018 Rajshri Soul</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5111,7 +5886,12 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>℗ 1999 Universal Music India Pvt. Ltd.</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5137,7 +5917,12 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>© 2018 Arutperumjothi Audio</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5167,7 +5952,12 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>(P) 1996 Sony Music Entertainment India Pvt. Ltd.</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5197,7 +5987,12 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>℗ 2002 Super Cassettes Industries Private Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5227,7 +6022,12 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>© 2010 Invis Multimedia</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5257,7 +6057,12 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>© 2018 UNT College of Music</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5287,7 +6092,12 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>©  2016 Red Ribbon Ent. Pvt. Ltd.</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5317,7 +6127,12 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5347,7 +6162,12 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>©  2007 Mayura Cassettes</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5377,7 +6197,12 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>© 2020 Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5407,7 +6232,12 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>©  2012 Gitaa Cassettes</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5437,7 +6267,12 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>© 2020 Red Ribbon Ent. Pvt. Ltd.</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5467,7 +6302,12 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>© 2022 Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5497,7 +6337,12 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>© 2020 Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5527,7 +6372,12 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5557,7 +6407,12 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>© 2020 Strumm Entertainment</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5587,7 +6442,12 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>© 2019 Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5617,7 +6477,12 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Rajshri Soul</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5647,7 +6512,12 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>© 2019 Junglee Music</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5677,7 +6547,12 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>©  2018 Rajshri Soul</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5707,7 +6582,12 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>© 2022 Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5737,7 +6617,12 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>© 2019 Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5767,7 +6652,12 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>© 2019 Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5797,7 +6687,12 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>© 2021 Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5827,7 +6722,12 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>© 2021 Red Ribbon Ent. Pvt. Ltd.</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5857,7 +6757,12 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>© 2020 Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5887,7 +6792,12 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>© 2020 Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5917,7 +6827,12 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>© 2021 Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5947,7 +6862,12 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>(P) 2003 Audiorec Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -5977,7 +6897,12 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>(P) 2007 Navras Records</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6007,7 +6932,12 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>© 2022 RJ Productions International, One Little Finger</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6037,7 +6967,12 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>© 2021 Nupur Audio</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6067,7 +7002,12 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>(P) 2001 Navras Records Ltd.</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6097,7 +7037,12 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>© 1988 Mrs Jagruti Pradip Dave</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6127,7 +7072,12 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>©  2004 Saregama</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6157,7 +7107,12 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>℗ 2021 3407214 Records DK</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6187,7 +7142,12 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>©  2015 Strumm Entertainment</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6217,7 +7177,12 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>(P) 2018 Myuzic Entertainment</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6247,7 +7212,12 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>© 2022 Mars Films</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6277,7 +7247,12 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>© 2019 Satyam Cassettes Ind</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6307,7 +7282,12 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>(C) 2000 ARC</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6337,7 +7317,12 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>℗ 2009 Super Cassettes Industries Private Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6367,7 +7352,12 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>©  1986 Saregama</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6397,7 +7387,12 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>(P) 2021 Legendary Legacy Promotions Pvt. Ltd.</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6427,7 +7422,12 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>℗ 2019 Mitali Creations</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6457,7 +7457,12 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>© 2019 Chitra Rajan</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6487,7 +7492,12 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>© 2020 Nitai Pada Kamala Das</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6517,7 +7527,12 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>(P) 2003 Living Media India Ltd.</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6547,7 +7562,12 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>(P) 2003 Living Media India, Ltd</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6577,7 +7597,12 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>(P) 2021 Bright Shiny Things</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6607,7 +7632,12 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>© 2009 Meeta Ravindra</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6637,7 +7667,12 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>© 2019 Various Artists</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6667,7 +7702,12 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>© 2012 Subramaniam Entertainment</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6697,7 +7737,12 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>© 2012 Subramaniam Entertainment</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6727,7 +7772,12 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>℗ 2014 Broadwood Records Ltd</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6757,7 +7807,12 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>© 2021 Red Ribbon Ent. Pvt. Ltd.</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6787,7 +7842,12 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>© 2020 Ditto Music/MR Films</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6817,7 +7877,12 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>℗ 2016 Ishtar Music Pvt. Ltd.</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6847,7 +7912,12 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>© 2022 Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6877,7 +7947,12 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>© 2022 Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6907,7 +7982,12 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>© 2021 Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6937,7 +8017,12 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>© 2022 Bhumik Shah</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6967,7 +8052,12 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>© 2020 Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -6997,7 +8087,12 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>© 2020 Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7027,7 +8122,12 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>© 2020 Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7057,7 +8157,12 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>© 2022 Red Ribbon Entertainment Pvt. Ltd.</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7087,7 +8192,12 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>© 2022 Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7117,7 +8227,12 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>© 2021 Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7147,7 +8262,12 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>© 2021 Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7177,7 +8297,12 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>© 2021 Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7207,7 +8332,12 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>© 2020 Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7237,7 +8367,12 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>© 2021 Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7267,7 +8402,12 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>© 2022 Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7297,7 +8437,12 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>© 2022 Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7327,7 +8472,12 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>© 2021 Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7357,7 +8507,12 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>© 2022 Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7387,7 +8542,12 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>© 2022 Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7417,7 +8577,12 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>© 2022 Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7447,7 +8612,12 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>© 2021 Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7477,7 +8647,12 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>© 2022 Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7507,7 +8682,12 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>© 2022 Rajshri Entertainment Private Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7537,7 +8717,12 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>© 2020 Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7567,7 +8752,12 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>© 2020 Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7597,7 +8787,12 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>© 2022 Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7627,7 +8822,12 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>© 2022 Rajshri Entertainment Private Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7657,7 +8857,12 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>© 2022 Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7687,7 +8892,12 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>© 2022 Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7717,7 +8927,12 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>© 2020 Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7747,7 +8962,12 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>© 2022 Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7777,7 +8997,12 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>© 2022 Rajshri Entertainment Private Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7807,7 +9032,12 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>© 2021 Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7837,7 +9067,12 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>© 2021 Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7867,7 +9102,12 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>© 2022 Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7897,7 +9137,12 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>© 2021 Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7927,7 +9172,12 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>© 2021 Rajshri Media (P) Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7957,7 +9207,12 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>© 2022 Music Manager</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -7987,7 +9242,12 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>(P) 2004 Living Media India Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8017,7 +9277,12 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>℗ 2022 Dusty Records</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8047,7 +9312,12 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>© 2020 Aditya Multimedia &amp; Entertainment</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8077,7 +9347,12 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>©  2008 Audiotracs</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8107,7 +9382,12 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>℗ 2021 Anand Live Bhajan Sanderao</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8137,7 +9417,12 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>℗ 1983 Universal Music India Pvt. Ltd.</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8167,7 +9452,12 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>℗ 1983 Universal Music India Pvt. Ltd.</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8197,7 +9487,12 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>© 2020 Times Music</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8227,7 +9522,12 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>℗ 1987 Universal Music India Pvt. Ltd.</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8257,7 +9557,12 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>©  2014 Strumm Entertainment</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8287,7 +9592,12 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>℗ 1983 Universal Music India Pvt. Ltd.</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8317,7 +9627,12 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>℗ 1983 Universal Music India Pvt. Ltd.</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8347,7 +9662,12 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>℗ 2020 Super Cassettes Industries Private Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8377,7 +9697,12 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>℗ 2012 Swathi Soft Solutions</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8407,7 +9732,12 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>℗ 1983 Universal Music India Pvt. Ltd.</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8437,7 +9767,12 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>℗ 1983 Universal Music India Pvt. Ltd.</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8467,7 +9802,12 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>℗ 2013 Questz World</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8497,7 +9837,12 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>© 2021 Saregama</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8527,7 +9872,12 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>© 2021 Saregama</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8557,7 +9907,12 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>©  2010 Divina Records</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8587,7 +9942,12 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>℗ 2022 Aashirwad Music</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8617,7 +9977,12 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>(P) 2013 Times Music</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8647,7 +10012,12 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>©  2000 Saregama</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8677,7 +10047,12 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>©  2004 Sagarika Music Pvt. Ltd</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8707,7 +10082,12 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>©  1999 Saregama</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8737,7 +10117,12 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>©  2015 Strumm Entertainment</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8767,7 +10152,12 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>©  2018 Strumm Entertainment</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8797,7 +10187,12 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>©  2014 Strumm Entertainment</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8827,7 +10222,12 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>©  2017 Strumm Entertainment</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8857,7 +10257,12 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>© 2018 Hladini</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8887,7 +10292,12 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>Gitaa Cassettes</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8917,7 +10327,12 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>℗ 1941 Saregama India Ltd</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8947,7 +10362,12 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>©  2014 Strumm Entertainment</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -8977,7 +10397,12 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>(P) 2020 IndianRaga</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -9007,7 +10432,12 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>©  2002 Vani</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -9037,7 +10467,12 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>©  2018 Strumm Entertainment</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -9067,7 +10502,12 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>℗ 1968 Saregama India Ltd</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -9097,7 +10537,12 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>©  2015 Strumm Entertainment</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -9127,7 +10572,12 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>©  2018 Strumm Entertainment</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -9157,7 +10607,12 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>© 2019 Kailasa Records</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -9187,7 +10642,12 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>℗ 2020 RK Cassettes</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -9217,7 +10677,12 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>℗ 2021 Wani Audio | ST</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -9247,7 +10712,12 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>© 2020 Strumm Entertainment</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -9277,7 +10747,12 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>©  2005 Bihaan Music</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -9307,7 +10782,12 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>© 2011 KRITI MUSIC</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -9337,7 +10817,12 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>© 2015 Niranjani Music</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -9367,7 +10852,12 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>℗ 2011 Super Cassettes Industries Private Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -9397,7 +10887,12 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>©  2007 Amutham Music Private Limited</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -9427,7 +10922,12 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>Gitaa Cassette</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -9457,7 +10957,12 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>©  2004 Sagarika Music Pvt. Ltd</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -9487,7 +10992,12 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>℗ 2013 Ninaad | sound:redefined</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -9517,7 +11027,12 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>© 2020 Strumm Entertainment</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -9547,7 +11062,12 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>©  2008 Audiotracs</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -9577,7 +11097,12 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>© 2022 Strumm Entertainment</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -9607,7 +11132,12 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>(P) 2022 Hare Krsna TV</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -9637,7 +11167,12 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>℗ 2020 RK Cassettes</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -9667,7 +11202,12 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>© 2007 Kosmik Music</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -9697,7 +11237,12 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>(C) 2013 ARC</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -9727,7 +11272,12 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>© 2022 5D Entertainments</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -9757,7 +11307,12 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>(P) 2012 Eros Now Music</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -9787,7 +11342,12 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>© 2009 Kosmik Music</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -9817,7 +11377,12 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>© 2015 Niranjani Music</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -9847,7 +11412,12 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>©  2013 Aditya Music</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -9877,7 +11447,12 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>℗ 2021 2014679 Records DK</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -9907,7 +11482,12 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>©  2000 YBR Music Publishing Pvt Ltd</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -9937,7 +11517,12 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>©  2017 Saregama</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -9967,7 +11552,12 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>© 2020 Saregama</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -9997,7 +11587,12 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>© 2019 Saregama</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -10027,7 +11622,12 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>©  2016 Aditya Music</t>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
